--- a/doc/道具设置.xlsx
+++ b/doc/道具设置.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -99,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,12 +137,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -148,7 +225,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -428,12 +505,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
@@ -453,25 +530,25 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -515,7 +592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -529,7 +606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
